--- a/data/File_14_-_IoD2015_Recast_to_2019_Local_Authority_District__lower-tier__Boundaries.xlsx
+++ b/data/File_14_-_IoD2015_Recast_to_2019_Local_Authority_District__lower-tier__Boundaries.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPENNEY\OneDrive - MHCLG\Desktop\Release\All for Web\TABLES FOR RELEASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Warrington_council\Warrington_deprivation_index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F1A20A4A-4CBB-406B-B7BC-4B3616B63929}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{005AF871-DCA8-4F9E-9D6E-3E0338D21A3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA623F2-40DA-441D-B95B-8FEAFED20D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
     <sheet name="IMD2015 recast to 2019LAs" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IMD2015 recast to 2019LAs'!$A$1:$P$318</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2344,7 +2347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2367,7 +2370,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5017,11 +5019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB86C16-9B2D-4156-851A-470179BB7C0C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="14"/>
+    <col min="1" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5033,31 +5035,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="24.26953125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="24.26953125" style="12" customWidth="1"/>
-    <col min="12" max="16" width="24.26953125" style="13" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="12" customWidth="1"/>
+    <col min="12" max="16" width="24.28515625" style="13" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="65">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="63.75">
       <c r="A1" s="1" t="s">
         <v>634</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" hidden="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" hidden="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" hidden="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" hidden="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" hidden="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" hidden="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" hidden="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" hidden="1">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" hidden="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" hidden="1">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" hidden="1">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" hidden="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" hidden="1">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" hidden="1">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" hidden="1">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" hidden="1">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" hidden="1">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" hidden="1">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" hidden="1">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" hidden="1">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" hidden="1">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" hidden="1">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" hidden="1">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" hidden="1">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" hidden="1">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" hidden="1">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" hidden="1">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" hidden="1">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" hidden="1">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" hidden="1">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" hidden="1">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" hidden="1">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" hidden="1">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" hidden="1">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" hidden="1">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" hidden="1">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" hidden="1">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" hidden="1">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" hidden="1">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" hidden="1">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" hidden="1">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" hidden="1">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" hidden="1">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" hidden="1">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" hidden="1">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -7707,7 +7710,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" hidden="1">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -7732,7 +7735,7 @@
       <c r="H54" s="8">
         <v>210</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="4">
         <v>25498.560000000001</v>
       </c>
       <c r="J54" s="8">
@@ -7757,7 +7760,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" hidden="1">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" hidden="1">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" hidden="1">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" hidden="1">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" hidden="1">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" hidden="1">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="1">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" hidden="1">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" hidden="1">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" hidden="1">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -8307,7 +8310,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" hidden="1">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" hidden="1">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" hidden="1">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" hidden="1">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" hidden="1">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" hidden="1">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" hidden="1">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" hidden="1">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" hidden="1">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -8757,7 +8760,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" hidden="1">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -8807,7 +8810,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" hidden="1">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" hidden="1">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" hidden="1">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" hidden="1">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -9007,7 +9010,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" hidden="1">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -9057,7 +9060,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" hidden="1">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -9107,7 +9110,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" hidden="1">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -9157,7 +9160,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" hidden="1">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" hidden="1">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" hidden="1">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -9307,7 +9310,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" hidden="1">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -9357,7 +9360,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" hidden="1">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" hidden="1">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9460,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" hidden="1">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -9507,7 +9510,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" hidden="1">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
@@ -9607,7 +9610,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" hidden="1">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" hidden="1">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -9707,7 +9710,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" hidden="1">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -9757,7 +9760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" hidden="1">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
@@ -9807,7 +9810,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" hidden="1">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -9857,7 +9860,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" hidden="1">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="1">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="1">
       <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" hidden="1">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
@@ -10057,7 +10060,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="1">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
@@ -10107,7 +10110,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="1">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="1">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="1">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
@@ -10257,7 +10260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="1">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
@@ -10307,7 +10310,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="1">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="1">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
@@ -10407,7 +10410,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="1">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
@@ -10457,7 +10460,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" hidden="1">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" hidden="1">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" hidden="1">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" hidden="1">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
@@ -10657,7 +10660,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="1">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -10707,7 +10710,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" hidden="1">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" hidden="1">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" hidden="1">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" hidden="1">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
@@ -10907,7 +10910,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" hidden="1">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" hidden="1">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" hidden="1">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" hidden="1">
       <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" hidden="1">
       <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
@@ -11157,7 +11160,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" hidden="1">
       <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
@@ -11207,7 +11210,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" hidden="1">
       <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" hidden="1">
       <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" hidden="1">
       <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
@@ -11357,7 +11360,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" hidden="1">
       <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" hidden="1">
       <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
@@ -11457,7 +11460,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" hidden="1">
       <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" hidden="1">
       <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" hidden="1">
       <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
@@ -11607,7 +11610,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" hidden="1">
       <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
@@ -11657,7 +11660,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" hidden="1">
       <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" hidden="1">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
@@ -11757,7 +11760,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" hidden="1">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" hidden="1">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
@@ -11857,7 +11860,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" hidden="1">
       <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
@@ -11907,7 +11910,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" hidden="1">
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
@@ -11957,7 +11960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" hidden="1">
       <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" hidden="1">
       <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
@@ -12057,7 +12060,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" hidden="1">
       <c r="A141" s="3" t="s">
         <v>139</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" hidden="1">
       <c r="A142" s="3" t="s">
         <v>140</v>
       </c>
@@ -12157,7 +12160,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" hidden="1">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
@@ -12207,7 +12210,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" hidden="1">
       <c r="A144" s="3" t="s">
         <v>142</v>
       </c>
@@ -12257,7 +12260,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" hidden="1">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" hidden="1">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" hidden="1">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" hidden="1">
       <c r="A148" s="3" t="s">
         <v>146</v>
       </c>
@@ -12457,7 +12460,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" hidden="1">
       <c r="A149" s="3" t="s">
         <v>147</v>
       </c>
@@ -12507,7 +12510,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" hidden="1">
       <c r="A150" s="3" t="s">
         <v>148</v>
       </c>
@@ -12557,7 +12560,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" hidden="1">
       <c r="A151" s="3" t="s">
         <v>149</v>
       </c>
@@ -12607,7 +12610,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" hidden="1">
       <c r="A152" s="3" t="s">
         <v>150</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" hidden="1">
       <c r="A153" s="3" t="s">
         <v>151</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" hidden="1">
       <c r="A154" s="3" t="s">
         <v>152</v>
       </c>
@@ -12757,7 +12760,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" hidden="1">
       <c r="A155" s="3" t="s">
         <v>153</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" hidden="1">
       <c r="A156" s="3" t="s">
         <v>154</v>
       </c>
@@ -12857,7 +12860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" hidden="1">
       <c r="A157" s="3" t="s">
         <v>155</v>
       </c>
@@ -12907,7 +12910,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" hidden="1">
       <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
@@ -12957,7 +12960,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" hidden="1">
       <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
@@ -13007,7 +13010,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" hidden="1">
       <c r="A160" s="3" t="s">
         <v>158</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" hidden="1">
       <c r="A161" s="3" t="s">
         <v>159</v>
       </c>
@@ -13107,7 +13110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" hidden="1">
       <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
@@ -13157,7 +13160,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" hidden="1">
       <c r="A163" s="3" t="s">
         <v>161</v>
       </c>
@@ -13207,7 +13210,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" hidden="1">
       <c r="A164" s="3" t="s">
         <v>162</v>
       </c>
@@ -13257,7 +13260,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" hidden="1">
       <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
@@ -13307,7 +13310,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" hidden="1">
       <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
@@ -13357,7 +13360,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" hidden="1">
       <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
@@ -13407,7 +13410,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" hidden="1">
       <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" hidden="1">
       <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" hidden="1">
       <c r="A170" s="3" t="s">
         <v>168</v>
       </c>
@@ -13557,7 +13560,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" hidden="1">
       <c r="A171" s="3" t="s">
         <v>169</v>
       </c>
@@ -13607,7 +13610,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" hidden="1">
       <c r="A172" s="3" t="s">
         <v>170</v>
       </c>
@@ -13657,7 +13660,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" hidden="1">
       <c r="A173" s="3" t="s">
         <v>171</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" hidden="1">
       <c r="A174" s="3" t="s">
         <v>172</v>
       </c>
@@ -13757,7 +13760,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" hidden="1">
       <c r="A175" s="3" t="s">
         <v>173</v>
       </c>
@@ -13807,7 +13810,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" hidden="1">
       <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
@@ -13857,7 +13860,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" hidden="1">
       <c r="A177" s="3" t="s">
         <v>175</v>
       </c>
@@ -13907,7 +13910,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" hidden="1">
       <c r="A178" s="3" t="s">
         <v>176</v>
       </c>
@@ -13957,7 +13960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" hidden="1">
       <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
@@ -14007,7 +14010,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" hidden="1">
       <c r="A180" s="3" t="s">
         <v>178</v>
       </c>
@@ -14057,7 +14060,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" hidden="1">
       <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" hidden="1">
       <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
@@ -14157,7 +14160,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" hidden="1">
       <c r="A183" s="3" t="s">
         <v>181</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" hidden="1">
       <c r="A184" s="3" t="s">
         <v>182</v>
       </c>
@@ -14257,7 +14260,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" hidden="1">
       <c r="A185" s="3" t="s">
         <v>183</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" hidden="1">
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
@@ -14357,7 +14360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" hidden="1">
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
@@ -14407,7 +14410,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" hidden="1">
       <c r="A188" s="3" t="s">
         <v>186</v>
       </c>
@@ -14457,7 +14460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" hidden="1">
       <c r="A189" s="3" t="s">
         <v>187</v>
       </c>
@@ -14507,7 +14510,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" hidden="1">
       <c r="A190" s="3" t="s">
         <v>188</v>
       </c>
@@ -14557,7 +14560,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" hidden="1">
       <c r="A191" s="3" t="s">
         <v>189</v>
       </c>
@@ -14607,7 +14610,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" hidden="1">
       <c r="A192" s="3" t="s">
         <v>190</v>
       </c>
@@ -14657,7 +14660,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" hidden="1">
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
@@ -14707,7 +14710,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" hidden="1">
       <c r="A194" s="3" t="s">
         <v>192</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" hidden="1">
       <c r="A195" s="3" t="s">
         <v>193</v>
       </c>
@@ -14807,7 +14810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" hidden="1">
       <c r="A196" s="3" t="s">
         <v>194</v>
       </c>
@@ -14857,7 +14860,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" hidden="1">
       <c r="A197" s="3" t="s">
         <v>195</v>
       </c>
@@ -14907,7 +14910,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" hidden="1">
       <c r="A198" s="3" t="s">
         <v>196</v>
       </c>
@@ -14957,7 +14960,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" hidden="1">
       <c r="A199" s="3" t="s">
         <v>197</v>
       </c>
@@ -15007,7 +15010,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" hidden="1">
       <c r="A200" s="3" t="s">
         <v>198</v>
       </c>
@@ -15057,7 +15060,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" hidden="1">
       <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
@@ -15107,7 +15110,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" hidden="1">
       <c r="A202" s="3" t="s">
         <v>200</v>
       </c>
@@ -15157,7 +15160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" hidden="1">
       <c r="A203" s="3" t="s">
         <v>201</v>
       </c>
@@ -15207,7 +15210,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" hidden="1">
       <c r="A204" s="3" t="s">
         <v>202</v>
       </c>
@@ -15257,7 +15260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" hidden="1">
       <c r="A205" s="3" t="s">
         <v>203</v>
       </c>
@@ -15307,7 +15310,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" hidden="1">
       <c r="A206" s="3" t="s">
         <v>204</v>
       </c>
@@ -15357,7 +15360,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" hidden="1">
       <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
@@ -15407,7 +15410,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" hidden="1">
       <c r="A208" s="3" t="s">
         <v>206</v>
       </c>
@@ -15457,7 +15460,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" hidden="1">
       <c r="A209" s="3" t="s">
         <v>207</v>
       </c>
@@ -15507,7 +15510,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" hidden="1">
       <c r="A210" s="3" t="s">
         <v>208</v>
       </c>
@@ -15557,7 +15560,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" hidden="1">
       <c r="A211" s="3" t="s">
         <v>209</v>
       </c>
@@ -15607,7 +15610,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" hidden="1">
       <c r="A212" s="3" t="s">
         <v>210</v>
       </c>
@@ -15657,7 +15660,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" hidden="1">
       <c r="A213" s="3" t="s">
         <v>211</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" hidden="1">
       <c r="A214" s="3" t="s">
         <v>212</v>
       </c>
@@ -15757,7 +15760,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" hidden="1">
       <c r="A215" s="3" t="s">
         <v>213</v>
       </c>
@@ -15807,7 +15810,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" hidden="1">
       <c r="A216" s="3" t="s">
         <v>214</v>
       </c>
@@ -15857,7 +15860,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" hidden="1">
       <c r="A217" s="3" t="s">
         <v>215</v>
       </c>
@@ -15907,7 +15910,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" hidden="1">
       <c r="A218" s="3" t="s">
         <v>216</v>
       </c>
@@ -15957,7 +15960,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" hidden="1">
       <c r="A219" s="3" t="s">
         <v>217</v>
       </c>
@@ -16007,7 +16010,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" hidden="1">
       <c r="A220" s="3" t="s">
         <v>218</v>
       </c>
@@ -16057,7 +16060,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" hidden="1">
       <c r="A221" s="3" t="s">
         <v>219</v>
       </c>
@@ -16107,7 +16110,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" hidden="1">
       <c r="A222" s="3" t="s">
         <v>220</v>
       </c>
@@ -16157,7 +16160,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" hidden="1">
       <c r="A223" s="3" t="s">
         <v>221</v>
       </c>
@@ -16207,7 +16210,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" hidden="1">
       <c r="A224" s="3" t="s">
         <v>222</v>
       </c>
@@ -16257,7 +16260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" hidden="1">
       <c r="A225" s="3" t="s">
         <v>223</v>
       </c>
@@ -16307,7 +16310,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" hidden="1">
       <c r="A226" s="3" t="s">
         <v>224</v>
       </c>
@@ -16357,7 +16360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" hidden="1">
       <c r="A227" s="3" t="s">
         <v>225</v>
       </c>
@@ -16407,7 +16410,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" hidden="1">
       <c r="A228" s="3" t="s">
         <v>226</v>
       </c>
@@ -16457,7 +16460,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" hidden="1">
       <c r="A229" s="3" t="s">
         <v>227</v>
       </c>
@@ -16507,7 +16510,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" hidden="1">
       <c r="A230" s="3" t="s">
         <v>228</v>
       </c>
@@ -16557,7 +16560,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" hidden="1">
       <c r="A231" s="3" t="s">
         <v>229</v>
       </c>
@@ -16607,7 +16610,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" hidden="1">
       <c r="A232" s="3" t="s">
         <v>230</v>
       </c>
@@ -16657,7 +16660,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" hidden="1">
       <c r="A233" s="3" t="s">
         <v>231</v>
       </c>
@@ -16707,7 +16710,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" hidden="1">
       <c r="A234" s="3" t="s">
         <v>232</v>
       </c>
@@ -16757,7 +16760,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" hidden="1">
       <c r="A235" s="3" t="s">
         <v>233</v>
       </c>
@@ -16807,7 +16810,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" hidden="1">
       <c r="A236" s="3" t="s">
         <v>234</v>
       </c>
@@ -16857,7 +16860,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" hidden="1">
       <c r="A237" s="3" t="s">
         <v>235</v>
       </c>
@@ -16907,7 +16910,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" hidden="1">
       <c r="A238" s="3" t="s">
         <v>236</v>
       </c>
@@ -16957,7 +16960,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" hidden="1">
       <c r="A239" s="3" t="s">
         <v>237</v>
       </c>
@@ -17007,7 +17010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" hidden="1">
       <c r="A240" s="3" t="s">
         <v>238</v>
       </c>
@@ -17057,7 +17060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" hidden="1">
       <c r="A241" s="3" t="s">
         <v>239</v>
       </c>
@@ -17107,7 +17110,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" hidden="1">
       <c r="A242" s="3" t="s">
         <v>240</v>
       </c>
@@ -17157,7 +17160,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" hidden="1">
       <c r="A243" s="3" t="s">
         <v>241</v>
       </c>
@@ -17207,7 +17210,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" hidden="1">
       <c r="A244" s="3" t="s">
         <v>242</v>
       </c>
@@ -17257,7 +17260,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" hidden="1">
       <c r="A245" s="3" t="s">
         <v>243</v>
       </c>
@@ -17307,7 +17310,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" hidden="1">
       <c r="A246" s="3" t="s">
         <v>244</v>
       </c>
@@ -17357,7 +17360,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" hidden="1">
       <c r="A247" s="3" t="s">
         <v>245</v>
       </c>
@@ -17407,7 +17410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" hidden="1">
       <c r="A248" s="3" t="s">
         <v>246</v>
       </c>
@@ -17457,7 +17460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" hidden="1">
       <c r="A249" s="3" t="s">
         <v>247</v>
       </c>
@@ -17507,7 +17510,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" hidden="1">
       <c r="A250" s="3" t="s">
         <v>248</v>
       </c>
@@ -17557,7 +17560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" hidden="1">
       <c r="A251" s="3" t="s">
         <v>249</v>
       </c>
@@ -17607,7 +17610,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" hidden="1">
       <c r="A252" s="3" t="s">
         <v>250</v>
       </c>
@@ -17657,7 +17660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" hidden="1">
       <c r="A253" s="3" t="s">
         <v>251</v>
       </c>
@@ -17707,7 +17710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" hidden="1">
       <c r="A254" s="3" t="s">
         <v>252</v>
       </c>
@@ -17757,7 +17760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" hidden="1">
       <c r="A255" s="3" t="s">
         <v>253</v>
       </c>
@@ -17807,7 +17810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" hidden="1">
       <c r="A256" s="3" t="s">
         <v>254</v>
       </c>
@@ -17857,7 +17860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" hidden="1">
       <c r="A257" s="3" t="s">
         <v>255</v>
       </c>
@@ -17907,7 +17910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" hidden="1">
       <c r="A258" s="3" t="s">
         <v>256</v>
       </c>
@@ -17957,7 +17960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" hidden="1">
       <c r="A259" s="3" t="s">
         <v>257</v>
       </c>
@@ -18007,7 +18010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" hidden="1">
       <c r="A260" s="3" t="s">
         <v>258</v>
       </c>
@@ -18057,7 +18060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" hidden="1">
       <c r="A261" s="3" t="s">
         <v>259</v>
       </c>
@@ -18107,7 +18110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" hidden="1">
       <c r="A262" s="3" t="s">
         <v>260</v>
       </c>
@@ -18157,7 +18160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" hidden="1">
       <c r="A263" s="3" t="s">
         <v>261</v>
       </c>
@@ -18207,7 +18210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" hidden="1">
       <c r="A264" s="3" t="s">
         <v>262</v>
       </c>
@@ -18257,7 +18260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" hidden="1">
       <c r="A265" s="3" t="s">
         <v>263</v>
       </c>
@@ -18307,7 +18310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" hidden="1">
       <c r="A266" s="3" t="s">
         <v>264</v>
       </c>
@@ -18357,7 +18360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" hidden="1">
       <c r="A267" s="3" t="s">
         <v>265</v>
       </c>
@@ -18407,7 +18410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" hidden="1">
       <c r="A268" s="3" t="s">
         <v>266</v>
       </c>
@@ -18457,7 +18460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" hidden="1">
       <c r="A269" s="3" t="s">
         <v>267</v>
       </c>
@@ -18507,7 +18510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" hidden="1">
       <c r="A270" s="3" t="s">
         <v>268</v>
       </c>
@@ -18557,7 +18560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" hidden="1">
       <c r="A271" s="3" t="s">
         <v>269</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" hidden="1">
       <c r="A272" s="3" t="s">
         <v>270</v>
       </c>
@@ -18657,7 +18660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" hidden="1">
       <c r="A273" s="3" t="s">
         <v>271</v>
       </c>
@@ -18707,7 +18710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" hidden="1">
       <c r="A274" s="3" t="s">
         <v>272</v>
       </c>
@@ -18757,7 +18760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" hidden="1">
       <c r="A275" s="3" t="s">
         <v>273</v>
       </c>
@@ -18807,7 +18810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" hidden="1">
       <c r="A276" s="3" t="s">
         <v>274</v>
       </c>
@@ -18857,7 +18860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" hidden="1">
       <c r="A277" s="3" t="s">
         <v>275</v>
       </c>
@@ -18907,7 +18910,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" hidden="1">
       <c r="A278" s="3" t="s">
         <v>276</v>
       </c>
@@ -18957,7 +18960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" hidden="1">
       <c r="A279" s="3" t="s">
         <v>277</v>
       </c>
@@ -19007,7 +19010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" hidden="1">
       <c r="A280" s="3" t="s">
         <v>278</v>
       </c>
@@ -19057,7 +19060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" hidden="1">
       <c r="A281" s="3" t="s">
         <v>279</v>
       </c>
@@ -19107,7 +19110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" hidden="1">
       <c r="A282" s="3" t="s">
         <v>280</v>
       </c>
@@ -19157,7 +19160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" hidden="1">
       <c r="A283" s="3" t="s">
         <v>281</v>
       </c>
@@ -19207,7 +19210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" hidden="1">
       <c r="A284" s="3" t="s">
         <v>282</v>
       </c>
@@ -19257,7 +19260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" hidden="1">
       <c r="A285" s="3" t="s">
         <v>283</v>
       </c>
@@ -19307,7 +19310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" hidden="1">
       <c r="A286" s="3" t="s">
         <v>284</v>
       </c>
@@ -19357,7 +19360,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" hidden="1">
       <c r="A287" s="3" t="s">
         <v>285</v>
       </c>
@@ -19407,7 +19410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" hidden="1">
       <c r="A288" s="3" t="s">
         <v>286</v>
       </c>
@@ -19457,7 +19460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" hidden="1">
       <c r="A289" s="3" t="s">
         <v>287</v>
       </c>
@@ -19507,7 +19510,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" hidden="1">
       <c r="A290" s="3" t="s">
         <v>288</v>
       </c>
@@ -19557,7 +19560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" hidden="1">
       <c r="A291" s="3" t="s">
         <v>289</v>
       </c>
@@ -19607,7 +19610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" hidden="1">
       <c r="A292" s="3" t="s">
         <v>290</v>
       </c>
@@ -19657,7 +19660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" hidden="1">
       <c r="A293" s="3" t="s">
         <v>291</v>
       </c>
@@ -19707,7 +19710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" hidden="1">
       <c r="A294" s="3" t="s">
         <v>292</v>
       </c>
@@ -19757,7 +19760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" hidden="1">
       <c r="A295" s="3" t="s">
         <v>293</v>
       </c>
@@ -19807,7 +19810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" hidden="1">
       <c r="A296" s="3" t="s">
         <v>294</v>
       </c>
@@ -19857,7 +19860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" hidden="1">
       <c r="A297" s="3" t="s">
         <v>295</v>
       </c>
@@ -19907,7 +19910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" hidden="1">
       <c r="A298" s="3" t="s">
         <v>296</v>
       </c>
@@ -19957,7 +19960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" hidden="1">
       <c r="A299" s="3" t="s">
         <v>297</v>
       </c>
@@ -20007,7 +20010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" hidden="1">
       <c r="A300" s="3" t="s">
         <v>298</v>
       </c>
@@ -20057,7 +20060,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" hidden="1">
       <c r="A301" s="3" t="s">
         <v>299</v>
       </c>
@@ -20107,7 +20110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" hidden="1">
       <c r="A302" s="3" t="s">
         <v>300</v>
       </c>
@@ -20157,7 +20160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" hidden="1">
       <c r="A303" s="3" t="s">
         <v>301</v>
       </c>
@@ -20207,7 +20210,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" hidden="1">
       <c r="A304" s="3" t="s">
         <v>302</v>
       </c>
@@ -20257,7 +20260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" hidden="1">
       <c r="A305" s="3" t="s">
         <v>303</v>
       </c>
@@ -20307,7 +20310,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" hidden="1">
       <c r="A306" s="3" t="s">
         <v>304</v>
       </c>
@@ -20357,7 +20360,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" hidden="1">
       <c r="A307" s="3" t="s">
         <v>305</v>
       </c>
@@ -20407,7 +20410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" hidden="1">
       <c r="A308" s="3" t="s">
         <v>306</v>
       </c>
@@ -20457,7 +20460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" hidden="1">
       <c r="A309" s="3" t="s">
         <v>307</v>
       </c>
@@ -20507,7 +20510,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" hidden="1">
       <c r="A310" s="3" t="s">
         <v>308</v>
       </c>
@@ -20557,7 +20560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" hidden="1">
       <c r="A311" s="3" t="s">
         <v>309</v>
       </c>
@@ -20607,7 +20610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" hidden="1">
       <c r="A312" s="3" t="s">
         <v>310</v>
       </c>
@@ -20657,7 +20660,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" hidden="1">
       <c r="A313" s="3" t="s">
         <v>311</v>
       </c>
@@ -20707,7 +20710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" hidden="1">
       <c r="A314" s="3" t="s">
         <v>312</v>
       </c>
@@ -20757,7 +20760,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" hidden="1">
       <c r="A315" s="3" t="s">
         <v>313</v>
       </c>
@@ -20807,7 +20810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" hidden="1">
       <c r="A316" s="3" t="s">
         <v>314</v>
       </c>
@@ -20857,7 +20860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" hidden="1">
       <c r="A317" s="3" t="s">
         <v>315</v>
       </c>
@@ -20907,7 +20910,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" hidden="1">
       <c r="A318" s="3" t="s">
         <v>316</v>
       </c>
@@ -20958,6 +20961,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P318" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cheshire East"/>
+        <filter val="Cheshire West and Chester"/>
+        <filter val="Warrington"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
